--- a/학습자료/단답형/국어_복습_의미_동사.xlsx
+++ b/학습자료/단답형/국어_복습_의미_동사.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -635,6 +635,278 @@
       </c>
       <c r="D11" t="inlineStr"/>
     </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>마음에 마땅찮아 혀를 차는 소리를 자꾸 내다</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>끌끌대다</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>의미_동사</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>몸이 둔하고 느리게 자꾸 움직인다</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>굼적대다</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>의미_동사</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>음식 따위를 한꺼번에 입에 많이 넣고 잇따라 조금씩 씹다</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>꼬약대다</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>의미_동사</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>벌레가 기어가는 것처럼 살갗에 간지럽고 자릿한 느낌에 자꾸 들다</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>가닐대다</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>의미_동사</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>팔다리를 쭉 펴다. 남의 눈치를 살피지 아니하고 떳떳하게 기를 펴다</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>활개를 펴다</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>의미_동사</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>일하는 동작이 매우 굼뜨다</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>손이 뜨다</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>의미_동사</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>인색하다</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>손이 맑다</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>의미_동사</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>겉으로는 수그러진 듯하나 속에는 반항하는 마음이 있다</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>속을 달다</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>의미_동사</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>좋지 아니한 위장의 상태를 좀 편안하게 만들다</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>속을 달래다</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>의미_동사</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>강아지 따위가 걸음을 걷기 시작하다</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>발을 타다</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>의미_동사</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>1. 여자의 긴 머리를 두 갈래로 땋아 엇바꾸어 양쪽 귀 뒤로 돌려서 이마 위쪽에 한데 틀어 얹다.
+2. 어린 기생이 정식으로 기생이 되어 머리를 쪽 찌다.
+3. 여자가 시집을 가다.</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>머리를 올리다</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>의미_동사</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>창피를 당해 얼굴을 들고 다닐 수 없게 되다</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>코를 싸쥐다</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>의미_동사</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>기회가 완전히 무르익다</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>꼭지가 무르다</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>의미_동사</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>재산이나 자원 따위가 매우 많고 풍족하다</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>가멸차다</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>의미_동사</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>샅샅이 톺아 나가면서 살피다</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>톺아보다</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>의미_동사</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/학습자료/단답형/국어_복습_의미_동사.xlsx
+++ b/학습자료/단답형/국어_복습_의미_동사.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
